--- a/20.10.2023/followUser/userDetails.xlsx
+++ b/20.10.2023/followUser/userDetails.xlsx
@@ -381,7 +381,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,7 +436,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +450,7 @@
         <v>7</v>
       </c>
       <c r="B1">
-        <v>45219.715585324077</v>
+        <v>45224.500206909725</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -458,7 +458,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
